--- a/biology/Biochimie/Louis_Genevois/Louis_Genevois.xlsx
+++ b/biology/Biochimie/Louis_Genevois/Louis_Genevois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Genevois, né le 5 mars 1900 à Bayonne et mort à Paris 16e le 9 juin 1989[1] est un biochimiste et résistant français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Genevois, né le 5 mars 1900 à Bayonne et mort à Paris 16e le 9 juin 1989 est un biochimiste et résistant français.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans une famille germanophone (son père enseigne l'allemand au lycée de Bordeaux, sa mère est originaire de Suisse alémanique), Louis Genevois obtient une licence ès sciences physiques à la Faculté des sciences de Bordeaux en 1919[2], puis réussit le concours d'entrée à l’École normale supérieure, section sciences, en 1920[3].
-Il participe en 1923 à des expériences de René Maublanc au Centre de Documentation sociale de l’ENS, destinées à mettre en évidence une vision extra-rétinienne chez l'homme[4]. En 1925, il obtient l'agrégation de sciences naturelles[5].
-En 1926-27, il reçoit une des bourses de la Fondation Rockefeller, destinées à encourager la normalisation des relations internationales après la Première Guerre mondiale. Cette bourse lui permet d'effectuer un séjour dans le laboratoire de chimie physiologique d'Otto Fritz Meyerhof au Kaiser-Wilhem-Institut à Berlin-Dahlem[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans une famille germanophone (son père enseigne l'allemand au lycée de Bordeaux, sa mère est originaire de Suisse alémanique), Louis Genevois obtient une licence ès sciences physiques à la Faculté des sciences de Bordeaux en 1919, puis réussit le concours d'entrée à l’École normale supérieure, section sciences, en 1920.
+Il participe en 1923 à des expériences de René Maublanc au Centre de Documentation sociale de l’ENS, destinées à mettre en évidence une vision extra-rétinienne chez l'homme. En 1925, il obtient l'agrégation de sciences naturelles.
+En 1926-27, il reçoit une des bourses de la Fondation Rockefeller, destinées à encourager la normalisation des relations internationales après la Première Guerre mondiale. Cette bourse lui permet d'effectuer un séjour dans le laboratoire de chimie physiologique d'Otto Fritz Meyerhof au Kaiser-Wilhem-Institut à Berlin-Dahlem.
 Il est nommé professeur de chimie biologique et de physiologie végétale à la Faculté des sciences de Bordeaux, où il fait toute sa carrière. Entre 1937-1942, il dirige l’École de chimie industrielle et agricole de l’université de Bordeaux, après son annexion à la faculté des Sciences.
-Ainsi que plusieurs membres de son laboratoire, comme Pierre Cayrol ou Laure Gatet, il milite pendant l'occupation dans des groupes de vigilance anti-fasciste[3],[6]. Arrêté le 11 juin 1942, il échappe de peu à la déportation et est libéré le 15 septembre[3].
-Après sa mise à la retraite, il fait don à la bibliothèque de la Faculté des sciences de Bordeaux d'une partie importante de sa bibliothèque[7] et s'installe à Paris.
+Ainsi que plusieurs membres de son laboratoire, comme Pierre Cayrol ou Laure Gatet, il milite pendant l'occupation dans des groupes de vigilance anti-fasciste,. Arrêté le 11 juin 1942, il échappe de peu à la déportation et est libéré le 15 septembre.
+Après sa mise à la retraite, il fait don à la bibliothèque de la Faculté des sciences de Bordeaux d'une partie importante de sa bibliothèque et s'installe à Paris.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses recherches portent en particulier sur le métabolisme de la cellule végétale. Ses méthodes d'analyse très précises ont permis de mieux comprendre la constitution et la maturation des fruits ainsi que les processus de fermentation alcoolique et lactique[3]. Parmi ses élèves figurent Émile Peynaud et Jean Ribereau-Gayon qui sont considérés comme les fondateurs de l'œnologie moderne.
-Louis Genevois s'est aussi intéressé à des problèmes variés liés à l'agriculture. Après la crise pétrolière, il examina par exemple quelles solutions alternatives pourraient donner à l'agriculture son autonomie énergétique[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses recherches portent en particulier sur le métabolisme de la cellule végétale. Ses méthodes d'analyse très précises ont permis de mieux comprendre la constitution et la maturation des fruits ainsi que les processus de fermentation alcoolique et lactique. Parmi ses élèves figurent Émile Peynaud et Jean Ribereau-Gayon qui sont considérés comme les fondateurs de l'œnologie moderne.
+Louis Genevois s'est aussi intéressé à des problèmes variés liés à l'agriculture. Après la crise pétrolière, il examina par exemple quelles solutions alternatives pourraient donner à l'agriculture son autonomie énergétique.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Louis Genevois, Dans les laboratoires allemands, Le Progrès Civique, no 436, 24 décembre 1927,
 Otto Warburg (trad. Louis Genevois), Métabolisme cellulaire et Métabolisme des tumeurs. Travaux du Kaiser Wilhelm Institut für Biologie Berlin Dahlem, 1928.
